--- a/MAQUIN_Igor_Rapport_analyse.xlsx
+++ b/MAQUIN_Igor_Rapport_analyse.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\igorm\Desktop\P4.LAPANTHERE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE0B276-D764-4989-B9AF-AB27F674F3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC193F7F-3634-4E01-B5FE-02F2622082E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{1BCFB8A9-EB51-4657-B1F1-6C75136CE4BA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="73">
   <si>
     <t>Catégorie</t>
   </si>
@@ -242,6 +242,36 @@
   </si>
   <si>
     <t>Le contraste est très important pour le temps de lecture du site. Google prend en compte le taux de rebond</t>
+  </si>
+  <si>
+    <t>Le contrastes doit respecter le niveau AA du wcag</t>
+  </si>
+  <si>
+    <t>Ne pas mettre de balise meta keyword</t>
+  </si>
+  <si>
+    <t>https://optimiz.me/la-balise-meta-keywords/</t>
+  </si>
+  <si>
+    <t>https://thibautsoufflet.fr/blog/pourquoi-et-comment-minifier-vos-fichiers-css-html-et-javascript/</t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/Accessibility/Understanding_WCAG/Perceivable/Color_contrast</t>
+  </si>
+  <si>
+    <t>Langue indiqué par défault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mettre la langue "fr" </t>
+  </si>
+  <si>
+    <t>https://developer.mozilla.org/fr/docs/Web/HTML/Global_attributes/lang</t>
+  </si>
+  <si>
+    <t>La langue dans la balise &lt;html&gt; est indiqué par Défault</t>
+  </si>
+  <si>
+    <t>Problème W3C la langue dans la balise &lt;html&gt; est indiqué par default dans les deux pages et utilisations de la balise form</t>
   </si>
 </sst>
 </file>
@@ -660,18 +690,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{470114DB-67B1-4333-AB1E-D440A09E26F1}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B8" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" topLeftCell="D8" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="59" customWidth="1"/>
+    <col min="2" max="2" width="117.7109375" customWidth="1"/>
     <col min="3" max="3" width="103.140625" customWidth="1"/>
     <col min="4" max="4" width="43.5703125" customWidth="1"/>
     <col min="5" max="5" width="36.5703125" customWidth="1"/>
-    <col min="6" max="6" width="78.42578125" customWidth="1"/>
+    <col min="6" max="6" width="105.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
@@ -790,7 +820,7 @@
       <c r="E6" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="F6" s="7" t="s">
+      <c r="F6" s="5" t="s">
         <v>31</v>
       </c>
     </row>
@@ -871,7 +901,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>17</v>
       </c>
@@ -884,8 +914,17 @@
       <c r="D11" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="E11" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B12" s="8" t="s">
         <v>58</v>
       </c>
@@ -898,20 +937,49 @@
       <c r="E12" s="10" t="s">
         <v>59</v>
       </c>
+      <c r="F12" s="5" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>17</v>
+      </c>
       <c r="B13" s="8" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>63</v>
+      </c>
       <c r="E13" s="10" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B14" s="11"/>
+      <c r="F13" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B15" s="11"/>
@@ -926,8 +994,12 @@
     <hyperlink ref="F7" r:id="rId6" xr:uid="{1A379943-EE19-4E71-95A2-B28960AFEB44}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{3C9005FB-4D6F-41D5-8E9B-FA21DA13CC41}"/>
     <hyperlink ref="F9" r:id="rId8" xr:uid="{B96A3F6B-3C95-4BFB-98A5-3A5088329B8C}"/>
+    <hyperlink ref="F11" r:id="rId9" xr:uid="{444F5DD0-920D-41A6-B3D7-0348EEFAE0A6}"/>
+    <hyperlink ref="F12" r:id="rId10" xr:uid="{09E88FEA-8E37-4AEF-AB74-733B39AE820D}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{C31729B5-65D3-4CC8-B4F3-94C7237BEBD9}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{444B9860-1966-47CB-9DB9-37CCA7AC211F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>